--- a/biology/Botanique/Copihue/Copihue.xlsx
+++ b/biology/Botanique/Copihue/Copihue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lapageria rosea
 Le copihue (Lapageria rosea) est une espèce de plante à fleur. C'est la seule espèce actuellement acceptée du genre Lapageria.  Elle appartient à la famille des Smilacaceae selon la classification classique, ou de celle des Philesiaceae selon la classification phylogénétique.
@@ -514,7 +526,9 @@
           <t>Légende</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le copihue, fleur caractéristique des terres du sud du Chili est souvent utilisé dans diverses légendes mapuche (indiens du sud du Chili). Une de ces légendes raconte que des guerriers survivant des diverses batailles, montèrent dans les arbres pour voir le résultat de la bataille. En voyant leurs camarades morts, ces survivants se mirent à pleurer et leurs larmes se transformèrent en fleurs de sang. Ainsi les copihues permettent de se souvenir des esprits des soldats morts.
 Citation de Pablo Neruda dans un extrait de J'avoue que j'ai vécu :
